--- a/GameModules/MOWUGUIYIZHE/Localization_MOWUGUIYIZHE.xlsx
+++ b/GameModules/MOWUGUIYIZHE/Localization_MOWUGUIYIZHE.xlsx
@@ -1328,7 +1328,7 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>ඞВсе-в-одном и Один-во-всем</t>
+          <t>Все-в-одном и Один-во-всем</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>ඞЭто история о Забытых.
+          <t>Это история о Забытых.
   Когда появляется ложная история, как люди решают свою судьбу?
   Если бы вся ваша жизнь была построена на лжи, были бы вы по-прежнему готовы поделиться своей искрой, чтобы осветить жизни других?</t>
         </is>

--- a/GameModules/MOWUGUIYIZHE/Localization_MOWUGUIYIZHE.xlsx
+++ b/GameModules/MOWUGUIYIZHE/Localization_MOWUGUIYIZHE.xlsx
@@ -1328,7 +1328,7 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>Все-в-одном и Один-во-всем</t>
+          <t>Все-в-Одном и Один-во-Всем</t>
         </is>
       </c>
     </row>
